--- a/GeneratorPSK/doc/расчет (в лаке).xlsx
+++ b/GeneratorPSK/doc/расчет (в лаке).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="5625" yWindow="990" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Длина намотки</t>
   </si>
@@ -50,6 +51,30 @@
   </si>
   <si>
     <t>частота четверти</t>
+  </si>
+  <si>
+    <t>основная</t>
+  </si>
+  <si>
+    <t>Сжатие (3/4)</t>
+  </si>
+  <si>
+    <t>длинна волны</t>
+  </si>
+  <si>
+    <t>1/4 волны</t>
+  </si>
+  <si>
+    <t>3/4 волны</t>
+  </si>
+  <si>
+    <t>частота</t>
+  </si>
+  <si>
+    <t>Растяжение (1+ (1/4))</t>
+  </si>
+  <si>
+    <t>1+3/4 волны</t>
   </si>
 </sst>
 </file>
@@ -85,8 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -124,7 +152,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -143,6 +171,58 @@
         <a:xfrm>
           <a:off x="5657850" y="952500"/>
           <a:ext cx="13239750" cy="10134600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7981950" y="428625"/>
+          <a:ext cx="5391150" cy="6286500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,4 +629,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>299792458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>754000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <f>$C$3/F10</f>
+        <v>397.60272944297083</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <f>F11/4</f>
+        <v>99.400682360742707</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <f>F12*3</f>
+        <v>298.20204708222809</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3">
+        <f>$C$3/F13</f>
+        <v>1005333.3333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <f>F10</f>
+        <v>754000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f>$C$3/F20</f>
+        <v>397.60272944297083</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <f>F21/4</f>
+        <v>99.400682360742707</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <f>F21+F22</f>
+        <v>497.00341180371356</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3">
+        <f>$C$3/F23</f>
+        <v>603200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/GeneratorPSK/doc/расчет (в лаке).xlsx
+++ b/GeneratorPSK/doc/расчет (в лаке).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Длина намотки</t>
   </si>
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,11 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -152,7 +159,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -527,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="B4:D4"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -539,7 +546,7 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -550,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -561,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -569,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -580,7 +587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -592,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -604,7 +611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -612,17 +619,97 @@
         <f>C7/2</f>
         <v>510351.05477474537</v>
       </c>
-      <c r="E8">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
         <f>C7/4</f>
         <v>255175.52738737268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>348</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>211</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>3.6848451554764008</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>299792458</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>C20*C21*C22/1000</f>
+        <v>270.57081007632121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>C23/C24</f>
+        <v>1108000.001609324</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f>C26/2</f>
+        <v>554000.00080466201</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <f>C26/4</f>
+        <v>277000.000402331</v>
       </c>
     </row>
   </sheetData>
@@ -636,7 +723,7 @@
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -665,8 +752,8 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
-        <v>754000</v>
+      <c r="F10" s="4">
+        <v>277000</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -678,7 +765,7 @@
       </c>
       <c r="F11">
         <f>$C$3/F10</f>
-        <v>397.60272944297083</v>
+        <v>1082.2832418772564</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -690,7 +777,7 @@
       </c>
       <c r="F12">
         <f>F11/4</f>
-        <v>99.400682360742707</v>
+        <v>270.5708104693141</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -702,7 +789,7 @@
       </c>
       <c r="F13">
         <f>F12*3</f>
-        <v>298.20204708222809</v>
+        <v>811.71243140794229</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -711,7 +798,7 @@
       </c>
       <c r="F14" s="3">
         <f>$C$3/F13</f>
-        <v>1005333.3333333334</v>
+        <v>369333.33333333331</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -728,7 +815,7 @@
       </c>
       <c r="F20">
         <f>F10</f>
-        <v>754000</v>
+        <v>277000</v>
       </c>
     </row>
     <row r="21" spans="5:6">
@@ -737,7 +824,7 @@
       </c>
       <c r="F21">
         <f>$C$3/F20</f>
-        <v>397.60272944297083</v>
+        <v>1082.2832418772564</v>
       </c>
     </row>
     <row r="22" spans="5:6">
@@ -746,7 +833,7 @@
       </c>
       <c r="F22">
         <f>F21/4</f>
-        <v>99.400682360742707</v>
+        <v>270.5708104693141</v>
       </c>
     </row>
     <row r="23" spans="5:6">
@@ -755,7 +842,7 @@
       </c>
       <c r="F23">
         <f>F21+F22</f>
-        <v>497.00341180371356</v>
+        <v>1352.8540523465704</v>
       </c>
     </row>
     <row r="24" spans="5:6">
@@ -764,7 +851,7 @@
       </c>
       <c r="F24" s="3">
         <f>$C$3/F23</f>
-        <v>603200</v>
+        <v>221600</v>
       </c>
     </row>
   </sheetData>

--- a/GeneratorPSK/doc/расчет (в лаке).xlsx
+++ b/GeneratorPSK/doc/расчет (в лаке).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>Длина намотки</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>1+3/4 волны</t>
+  </si>
+  <si>
+    <t>Xc</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>пФ</t>
+  </si>
+  <si>
+    <t>Ф</t>
   </si>
 </sst>
 </file>
@@ -159,7 +177,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,16 +738,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G24"/>
+  <dimension ref="B3:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -804,12 +822,12 @@
     <row r="16" spans="2:7">
       <c r="E16" s="1"/>
     </row>
-    <row r="19" spans="5:6">
+    <row r="19" spans="5:7">
       <c r="E19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="5:6">
+    <row r="20" spans="5:7">
       <c r="E20" t="s">
         <v>12</v>
       </c>
@@ -818,7 +836,7 @@
         <v>277000</v>
       </c>
     </row>
-    <row r="21" spans="5:6">
+    <row r="21" spans="5:7">
       <c r="E21" s="2" t="s">
         <v>14</v>
       </c>
@@ -827,7 +845,7 @@
         <v>1082.2832418772564</v>
       </c>
     </row>
-    <row r="22" spans="5:6">
+    <row r="22" spans="5:7">
       <c r="E22" t="s">
         <v>15</v>
       </c>
@@ -836,7 +854,7 @@
         <v>270.5708104693141</v>
       </c>
     </row>
-    <row r="23" spans="5:6">
+    <row r="23" spans="5:7">
       <c r="E23" t="s">
         <v>19</v>
       </c>
@@ -845,13 +863,57 @@
         <v>1352.8540523465704</v>
       </c>
     </row>
-    <row r="24" spans="5:6">
+    <row r="24" spans="5:7">
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="3">
         <f>$C$3/F23</f>
         <v>221600</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>50000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f>F29/20</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <f>1/(2*PI()*F10*F30)</f>
+        <v>2.2982663262367556E-10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <f>F31*10^12</f>
+        <v>229.82663262367555</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
